--- a/data/2023/ssg/28,2_DE-7.xlsx
+++ b/data/2023/ssg/28,2_DE-7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="202">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -91,15 +91,249 @@
     <t>FL-Bibliotheken</t>
   </si>
   <si>
+    <t>20661-1</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Sveriges Geologiska Undersökning</t>
+  </si>
+  <si>
+    <t>[Verlag nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>Uppsala</t>
+  </si>
+  <si>
+    <t>swe</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0280-0527</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>28,2</t>
+  </si>
+  <si>
+    <t>Serie Ah, Hydrogeologiska översiktskartor</t>
+  </si>
+  <si>
+    <t>1.1981 -</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1107042-0</t>
+  </si>
+  <si>
+    <t>Bulletin</t>
+  </si>
+  <si>
+    <t>Paris [u.a.]</t>
+  </si>
+  <si>
+    <t>0414-0575</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>28,2;13;14,1;FID-KARTEN-DE-1a</t>
+  </si>
+  <si>
+    <t>9.1969 -</t>
+  </si>
+  <si>
+    <t>805161-6</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Serie Ae, Skala 1:50000</t>
+  </si>
+  <si>
+    <t>Nr. 1.1964 -</t>
+  </si>
+  <si>
+    <t>805162-8</t>
+  </si>
+  <si>
+    <t>Undersökning</t>
+  </si>
+  <si>
+    <t>Serie Af, Berggrundsgeologiska och geofysiska kartblad skala 1:50000</t>
+  </si>
+  <si>
+    <t>Nr. 1/4.1967 -</t>
+  </si>
+  <si>
+    <t>446601-9</t>
+  </si>
+  <si>
+    <t>Spesiell rapport</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>1.1976 -</t>
+  </si>
+  <si>
+    <t>918943-9</t>
+  </si>
+  <si>
+    <t>Norstedt</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>Serie Ag, Hydrogeologiska kartblad i skala 1 : 50000</t>
+  </si>
+  <si>
+    <t>1.1971 -</t>
+  </si>
+  <si>
+    <t>551697-3</t>
+  </si>
+  <si>
+    <t>mg;d</t>
+  </si>
+  <si>
+    <t>Tübinger Atlas des Vorderen Orients</t>
+  </si>
+  <si>
+    <t>Reichert</t>
+  </si>
+  <si>
+    <t>Wiesbaden</t>
+  </si>
+  <si>
+    <t>ger</t>
+  </si>
+  <si>
+    <t>050;500</t>
+  </si>
+  <si>
+    <t>Beihefte zum Tübinger Atlas des Vorderen Orients;Naturwissenschaften</t>
+  </si>
+  <si>
+    <t>Nr. 1.1977 - 31.2003,3; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>579839-5</t>
+  </si>
+  <si>
+    <t>Neuerwerbungen</t>
+  </si>
+  <si>
+    <t>Niedersächs. Staats- u. Univ.-Bibl.</t>
+  </si>
+  <si>
+    <t>Göttingen</t>
+  </si>
+  <si>
+    <t>020;910;550</t>
+  </si>
+  <si>
+    <t>Atlanten und Karten : Kartensammlung</t>
+  </si>
+  <si>
+    <t>Nr. 1.1976 - 48.1998[?]</t>
+  </si>
+  <si>
+    <t>1224748-0</t>
+  </si>
+  <si>
+    <t>IMI distribution maps of plant diseases</t>
+  </si>
+  <si>
+    <t>CAB International</t>
+  </si>
+  <si>
+    <t>Wallingford</t>
+  </si>
+  <si>
+    <t>0012-396X</t>
+  </si>
+  <si>
+    <t>630;640;580</t>
+  </si>
+  <si>
+    <t>820153-5</t>
+  </si>
+  <si>
+    <t>1992,Okt. -</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>1289823-5</t>
+  </si>
+  <si>
+    <t>Scientific investigations map</t>
+  </si>
+  <si>
+    <t>Washington, DC</t>
+  </si>
+  <si>
+    <t>1.1955 -</t>
+  </si>
+  <si>
+    <t>2054574-5</t>
+  </si>
+  <si>
+    <t>datacarrier</t>
+  </si>
+  <si>
+    <t>rb;ee;b</t>
+  </si>
+  <si>
+    <t>Umweltatlas Hessen</t>
+  </si>
+  <si>
+    <t>HLUG</t>
+  </si>
+  <si>
+    <t>570;330</t>
+  </si>
+  <si>
+    <t>12;28,2</t>
+  </si>
+  <si>
+    <t>2530321-1</t>
+  </si>
+  <si>
+    <t>2020817-0</t>
+  </si>
+  <si>
+    <t>[1.]2001 - 2.2004</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>2446940-3</t>
   </si>
   <si>
-    <t>print</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>Buckinghamshire papers</t>
   </si>
   <si>
@@ -112,9 +346,6 @@
     <t>eng</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>930;910;940</t>
   </si>
   <si>
@@ -124,30 +355,6 @@
     <t>1.2002 -</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>446601-9</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Spesiell rapport</t>
-  </si>
-  <si>
-    <t>Oslo</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>28,2</t>
-  </si>
-  <si>
-    <t>1.1976 -</t>
-  </si>
-  <si>
     <t>2471381-8</t>
   </si>
   <si>
@@ -169,9 +376,6 @@
     <t>1406935-0</t>
   </si>
   <si>
-    <t>datacarrier</t>
-  </si>
-  <si>
     <t>rb;mg;b</t>
   </si>
   <si>
@@ -184,9 +388,6 @@
     <t>Hamburg</t>
   </si>
   <si>
-    <t>ger</t>
-  </si>
-  <si>
     <t>333.7</t>
   </si>
   <si>
@@ -223,30 +424,6 @@
     <t>1a;12;18</t>
   </si>
   <si>
-    <t>551697-3</t>
-  </si>
-  <si>
-    <t>mg;d</t>
-  </si>
-  <si>
-    <t>Tübinger Atlas des Vorderen Orients</t>
-  </si>
-  <si>
-    <t>Reichert</t>
-  </si>
-  <si>
-    <t>Wiesbaden</t>
-  </si>
-  <si>
-    <t>050;500</t>
-  </si>
-  <si>
-    <t>Beihefte zum Tübinger Atlas des Vorderen Orients;Naturwissenschaften</t>
-  </si>
-  <si>
-    <t>Nr. 1.1977 - 31.2003,3; damit Ersch. eingest.</t>
-  </si>
-  <si>
     <t>2526517-9</t>
   </si>
   <si>
@@ -256,34 +433,37 @@
     <t>Wellington</t>
   </si>
   <si>
-    <t>910</t>
-  </si>
-  <si>
     <t>14;28,2</t>
   </si>
   <si>
     <t>Nachgewiesen 223.1986 -</t>
   </si>
   <si>
-    <t>579839-5</t>
-  </si>
-  <si>
-    <t>Neuerwerbungen</t>
-  </si>
-  <si>
-    <t>Niedersächs. Staats- u. Univ.-Bibl.</t>
-  </si>
-  <si>
-    <t>Göttingen</t>
-  </si>
-  <si>
-    <t>020;910;550</t>
-  </si>
-  <si>
-    <t>Atlanten und Karten : Kartensammlung</t>
-  </si>
-  <si>
-    <t>Nr. 1.1976 - 48.1998[?]</t>
+    <t>2145567-3</t>
+  </si>
+  <si>
+    <t>Health statistics</t>
+  </si>
+  <si>
+    <t>Office for Official Publications of the European Union</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>ger;eng;fre</t>
+  </si>
+  <si>
+    <t>310;610</t>
+  </si>
+  <si>
+    <t>28,2;3,2</t>
+  </si>
+  <si>
+    <t>Atlas on mortality in the European Union</t>
+  </si>
+  <si>
+    <t>1994/96(2002)=Ed. 2002 - 2009[?]</t>
   </si>
   <si>
     <t>2534937-5</t>
@@ -394,9 +574,6 @@
     <t>[1.]2007; 2.2009 - 4.2013</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>715</t>
   </si>
   <si>
@@ -413,180 +590,6 @@
   </si>
   <si>
     <t>1.1984 -</t>
-  </si>
-  <si>
-    <t>20661-1</t>
-  </si>
-  <si>
-    <t>Sveriges Geologiska Undersökning</t>
-  </si>
-  <si>
-    <t>Uppsala</t>
-  </si>
-  <si>
-    <t>swe</t>
-  </si>
-  <si>
-    <t>0280-0527</t>
-  </si>
-  <si>
-    <t>Serie Ah, Hydrogeologiska översiktskartor</t>
-  </si>
-  <si>
-    <t>1.1981 -</t>
-  </si>
-  <si>
-    <t>2054574-5</t>
-  </si>
-  <si>
-    <t>rb;ee;b</t>
-  </si>
-  <si>
-    <t>Umweltatlas Hessen</t>
-  </si>
-  <si>
-    <t>HLUG</t>
-  </si>
-  <si>
-    <t>570;330</t>
-  </si>
-  <si>
-    <t>12;28,2</t>
-  </si>
-  <si>
-    <t>2530321-1</t>
-  </si>
-  <si>
-    <t>2020817-0</t>
-  </si>
-  <si>
-    <t>[1.]2001 - 2.2004</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>805161-6</t>
-  </si>
-  <si>
-    <t>Serie Ae, Skala 1:50000</t>
-  </si>
-  <si>
-    <t>Nr. 1.1964 -</t>
-  </si>
-  <si>
-    <t>805162-8</t>
-  </si>
-  <si>
-    <t>Undersökning</t>
-  </si>
-  <si>
-    <t>Serie Af, Berggrundsgeologiska och geofysiska kartblad skala 1:50000</t>
-  </si>
-  <si>
-    <t>Nr. 1/4.1967 -</t>
-  </si>
-  <si>
-    <t>1107042-0</t>
-  </si>
-  <si>
-    <t>Bulletin</t>
-  </si>
-  <si>
-    <t>Paris [u.a.]</t>
-  </si>
-  <si>
-    <t>0414-0575</t>
-  </si>
-  <si>
-    <t>28,2;13;14,1;FID-KARTEN-DE-1a</t>
-  </si>
-  <si>
-    <t>9.1969 -</t>
-  </si>
-  <si>
-    <t>918943-9</t>
-  </si>
-  <si>
-    <t>Norstedt</t>
-  </si>
-  <si>
-    <t>Stockholm</t>
-  </si>
-  <si>
-    <t>Serie Ag, Hydrogeologiska kartblad i skala 1 : 50000</t>
-  </si>
-  <si>
-    <t>1.1971 -</t>
-  </si>
-  <si>
-    <t>2145567-3</t>
-  </si>
-  <si>
-    <t>Health statistics</t>
-  </si>
-  <si>
-    <t>Office for Official Publications of the European Union</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>ger;eng;fre</t>
-  </si>
-  <si>
-    <t>310;610</t>
-  </si>
-  <si>
-    <t>28,2;3,2</t>
-  </si>
-  <si>
-    <t>Atlas on mortality in the European Union</t>
-  </si>
-  <si>
-    <t>1994/96(2002)=Ed. 2002 - 2009[?]</t>
-  </si>
-  <si>
-    <t>1224748-0</t>
-  </si>
-  <si>
-    <t>IMI distribution maps of plant diseases</t>
-  </si>
-  <si>
-    <t>CAB International</t>
-  </si>
-  <si>
-    <t>Wallingford</t>
-  </si>
-  <si>
-    <t>0012-396X</t>
-  </si>
-  <si>
-    <t>630;640;580</t>
-  </si>
-  <si>
-    <t>820153-5</t>
-  </si>
-  <si>
-    <t>1992,Okt. -</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>1289823-5</t>
-  </si>
-  <si>
-    <t>Scientific investigations map</t>
-  </si>
-  <si>
-    <t>Washington, DC</t>
-  </si>
-  <si>
-    <t>1.1955 -</t>
   </si>
   <si>
     <t>Carta geológica de Chile</t>
@@ -1057,16 +1060,16 @@
         <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
         <v>32</v>
@@ -1084,7 +1087,7 @@
         <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
@@ -1102,7 +1105,7 @@
         <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s">
         <v>32</v>
@@ -1110,76 +1113,76 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3" t="s">
-        <v>36</v>
       </c>
       <c r="Y3" t="s">
         <v>32</v>
@@ -1187,25 +1190,25 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -1214,10 +1217,10 @@
         <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
         <v>48</v>
@@ -1256,7 +1259,7 @@
         <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s">
         <v>32</v>
@@ -1267,56 +1270,56 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s">
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="s">
         <v>53</v>
       </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" t="s">
-        <v>58</v>
-      </c>
       <c r="S5" t="s">
         <v>32</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v>32</v>
       </c>
       <c r="X5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="s">
         <v>32</v>
@@ -1341,102 +1344,102 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" t="s">
-        <v>66</v>
-      </c>
-      <c r="S6" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" t="s">
-        <v>32</v>
-      </c>
-      <c r="V6" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X6" t="s">
-        <v>67</v>
-      </c>
       <c r="Y6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
@@ -1445,13 +1448,13 @@
         <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="M7" t="s">
         <v>32</v>
@@ -1469,7 +1472,7 @@
         <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="S7" t="s">
         <v>32</v>
@@ -1487,7 +1490,7 @@
         <v>32</v>
       </c>
       <c r="X7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s">
         <v>32</v>
@@ -1495,25 +1498,25 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
@@ -1522,13 +1525,13 @@
         <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="M8" t="s">
         <v>32</v>
@@ -1546,7 +1549,7 @@
         <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="S8" t="s">
         <v>32</v>
@@ -1564,7 +1567,7 @@
         <v>32</v>
       </c>
       <c r="X8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s">
         <v>32</v>
@@ -1572,76 +1575,76 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
+        <v>78</v>
+      </c>
+      <c r="S9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" t="s">
         <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" t="s">
-        <v>87</v>
-      </c>
-      <c r="K9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" t="s">
-        <v>89</v>
-      </c>
-      <c r="S9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" t="s">
-        <v>32</v>
-      </c>
-      <c r="V9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9" t="s">
-        <v>32</v>
-      </c>
-      <c r="X9" t="s">
-        <v>36</v>
       </c>
       <c r="Y9" t="s">
         <v>32</v>
@@ -1649,7 +1652,7 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1658,28 +1661,28 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
         <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
         <v>32</v>
@@ -1697,10 +1700,10 @@
         <v>32</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="R10" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="S10" t="s">
         <v>32</v>
@@ -1709,16 +1712,16 @@
         <v>32</v>
       </c>
       <c r="U10" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="V10" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="W10" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="X10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s">
         <v>32</v>
@@ -1726,22 +1729,22 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -1750,13 +1753,13 @@
         <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K11" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
         <v>32</v>
@@ -1777,7 +1780,7 @@
         <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="S11" t="s">
         <v>32</v>
@@ -1795,7 +1798,7 @@
         <v>32</v>
       </c>
       <c r="X11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="s">
         <v>32</v>
@@ -1803,153 +1806,153 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>101</v>
+      </c>
+      <c r="R12" t="s">
+        <v>102</v>
+      </c>
+      <c r="S12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" t="s">
+        <v>32</v>
+      </c>
+      <c r="W12" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12" t="s">
         <v>103</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="Y12" t="s">
         <v>104</v>
-      </c>
-      <c r="D12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
-        <v>109</v>
-      </c>
-      <c r="J12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" t="s">
-        <v>111</v>
-      </c>
-      <c r="S12" t="s">
-        <v>32</v>
-      </c>
-      <c r="T12" t="s">
-        <v>32</v>
-      </c>
-      <c r="U12" t="s">
-        <v>32</v>
-      </c>
-      <c r="V12" t="s">
-        <v>32</v>
-      </c>
-      <c r="W12" t="s">
-        <v>32</v>
-      </c>
-      <c r="X12" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" t="s">
+        <v>112</v>
+      </c>
+      <c r="S13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13" t="s">
+        <v>32</v>
+      </c>
+      <c r="W13" t="s">
+        <v>32</v>
+      </c>
+      <c r="X13" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" t="s">
-        <v>118</v>
-      </c>
-      <c r="S13" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" t="s">
-        <v>32</v>
-      </c>
-      <c r="U13" t="s">
-        <v>32</v>
-      </c>
-      <c r="V13" t="s">
-        <v>32</v>
-      </c>
-      <c r="W13" t="s">
-        <v>32</v>
-      </c>
-      <c r="X13" t="s">
-        <v>36</v>
       </c>
       <c r="Y13" t="s">
         <v>32</v>
@@ -1957,102 +1960,102 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" t="s">
+        <v>118</v>
+      </c>
+      <c r="S14" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" t="s">
+        <v>32</v>
+      </c>
+      <c r="V14" t="s">
+        <v>32</v>
+      </c>
+      <c r="W14" t="s">
+        <v>32</v>
+      </c>
+      <c r="X14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" t="s">
-        <v>123</v>
-      </c>
-      <c r="K14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>124</v>
-      </c>
-      <c r="R14" t="s">
-        <v>125</v>
-      </c>
-      <c r="S14" t="s">
-        <v>32</v>
-      </c>
-      <c r="T14" t="s">
-        <v>32</v>
-      </c>
-      <c r="U14" t="s">
-        <v>32</v>
-      </c>
-      <c r="V14" t="s">
-        <v>32</v>
-      </c>
-      <c r="W14" t="s">
-        <v>32</v>
-      </c>
-      <c r="X14" t="s">
-        <v>126</v>
-      </c>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
         <v>32</v>
@@ -2061,10 +2064,10 @@
         <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
         <v>32</v>
@@ -2085,7 +2088,7 @@
         <v>32</v>
       </c>
       <c r="R15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="S15" t="s">
         <v>32</v>
@@ -2103,7 +2106,7 @@
         <v>32</v>
       </c>
       <c r="X15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s">
         <v>32</v>
@@ -2111,136 +2114,136 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" t="s">
+        <v>133</v>
+      </c>
+      <c r="S16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" t="s">
+        <v>32</v>
+      </c>
+      <c r="W16" t="s">
+        <v>32</v>
+      </c>
+      <c r="X16" t="s">
         <v>134</v>
       </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="Y16" t="s">
         <v>135</v>
-      </c>
-      <c r="G16" t="s">
-        <v>136</v>
-      </c>
-      <c r="H16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" t="s">
-        <v>137</v>
-      </c>
-      <c r="J16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" t="s">
-        <v>42</v>
-      </c>
-      <c r="L16" t="s">
-        <v>138</v>
-      </c>
-      <c r="M16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R16" t="s">
-        <v>139</v>
-      </c>
-      <c r="S16" t="s">
-        <v>32</v>
-      </c>
-      <c r="T16" t="s">
-        <v>32</v>
-      </c>
-      <c r="U16" t="s">
-        <v>32</v>
-      </c>
-      <c r="V16" t="s">
-        <v>32</v>
-      </c>
-      <c r="W16" t="s">
-        <v>32</v>
-      </c>
-      <c r="X16" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" t="s">
         <v>140</v>
       </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" t="s">
-        <v>144</v>
-      </c>
-      <c r="K17" t="s">
-        <v>145</v>
-      </c>
-      <c r="L17" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>147</v>
-      </c>
-      <c r="R17" t="s">
-        <v>148</v>
-      </c>
       <c r="S17" t="s">
         <v>32</v>
       </c>
@@ -2257,15 +2260,15 @@
         <v>32</v>
       </c>
       <c r="X17" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -2274,16 +2277,16 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H18" t="s">
         <v>32</v>
@@ -2292,13 +2295,13 @@
         <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="K18" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M18" t="s">
         <v>32</v>
@@ -2316,7 +2319,7 @@
         <v>32</v>
       </c>
       <c r="R18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="S18" t="s">
         <v>32</v>
@@ -2334,7 +2337,7 @@
         <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s">
         <v>32</v>
@@ -2342,76 +2345,76 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" t="s">
+        <v>155</v>
+      </c>
+      <c r="S19" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" t="s">
+        <v>32</v>
+      </c>
+      <c r="V19" t="s">
+        <v>32</v>
+      </c>
+      <c r="W19" t="s">
+        <v>32</v>
+      </c>
+      <c r="X19" t="s">
         <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" t="s">
-        <v>155</v>
-      </c>
-      <c r="M19" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>32</v>
-      </c>
-      <c r="R19" t="s">
-        <v>156</v>
-      </c>
-      <c r="S19" t="s">
-        <v>32</v>
-      </c>
-      <c r="T19" t="s">
-        <v>32</v>
-      </c>
-      <c r="U19" t="s">
-        <v>32</v>
-      </c>
-      <c r="V19" t="s">
-        <v>32</v>
-      </c>
-      <c r="W19" t="s">
-        <v>32</v>
-      </c>
-      <c r="X19" t="s">
-        <v>36</v>
       </c>
       <c r="Y19" t="s">
         <v>32</v>
@@ -2419,19 +2422,19 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" t="s">
         <v>158</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
       </c>
       <c r="F20" t="s">
         <v>159</v>
@@ -2446,7 +2449,7 @@
         <v>160</v>
       </c>
       <c r="J20" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
         <v>161</v>
@@ -2488,7 +2491,7 @@
         <v>32</v>
       </c>
       <c r="X20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s">
         <v>32</v>
@@ -2502,70 +2505,70 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" t="s">
+        <v>171</v>
+      </c>
+      <c r="S21" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21" t="s">
+        <v>32</v>
+      </c>
+      <c r="V21" t="s">
+        <v>32</v>
+      </c>
+      <c r="W21" t="s">
+        <v>32</v>
+      </c>
+      <c r="X21" t="s">
         <v>38</v>
-      </c>
-      <c r="D21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" t="s">
-        <v>164</v>
-      </c>
-      <c r="F21" t="s">
-        <v>165</v>
-      </c>
-      <c r="G21" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21" t="s">
-        <v>166</v>
-      </c>
-      <c r="M21" t="s">
-        <v>32</v>
-      </c>
-      <c r="N21" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>32</v>
-      </c>
-      <c r="R21" t="s">
-        <v>167</v>
-      </c>
-      <c r="S21" t="s">
-        <v>32</v>
-      </c>
-      <c r="T21" t="s">
-        <v>32</v>
-      </c>
-      <c r="U21" t="s">
-        <v>32</v>
-      </c>
-      <c r="V21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W21" t="s">
-        <v>32</v>
-      </c>
-      <c r="X21" t="s">
-        <v>36</v>
       </c>
       <c r="Y21" t="s">
         <v>32</v>
@@ -2573,76 +2576,76 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" t="s">
+        <v>178</v>
+      </c>
+      <c r="S22" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22" t="s">
+        <v>32</v>
+      </c>
+      <c r="V22" t="s">
+        <v>32</v>
+      </c>
+      <c r="W22" t="s">
+        <v>32</v>
+      </c>
+      <c r="X22" t="s">
         <v>38</v>
-      </c>
-      <c r="D22" t="s">
-        <v>169</v>
-      </c>
-      <c r="E22" t="s">
-        <v>170</v>
-      </c>
-      <c r="F22" t="s">
-        <v>171</v>
-      </c>
-      <c r="G22" t="s">
-        <v>172</v>
-      </c>
-      <c r="H22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" t="s">
-        <v>173</v>
-      </c>
-      <c r="K22" t="s">
-        <v>174</v>
-      </c>
-      <c r="L22" t="s">
-        <v>175</v>
-      </c>
-      <c r="M22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>32</v>
-      </c>
-      <c r="R22" t="s">
-        <v>176</v>
-      </c>
-      <c r="S22" t="s">
-        <v>32</v>
-      </c>
-      <c r="T22" t="s">
-        <v>32</v>
-      </c>
-      <c r="U22" t="s">
-        <v>32</v>
-      </c>
-      <c r="V22" t="s">
-        <v>32</v>
-      </c>
-      <c r="W22" t="s">
-        <v>32</v>
-      </c>
-      <c r="X22" t="s">
-        <v>36</v>
       </c>
       <c r="Y22" t="s">
         <v>32</v>
@@ -2650,37 +2653,37 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L23" t="s">
         <v>32</v>
@@ -2698,10 +2701,10 @@
         <v>32</v>
       </c>
       <c r="Q23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="R23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S23" t="s">
         <v>32</v>
@@ -2710,19 +2713,19 @@
         <v>32</v>
       </c>
       <c r="U23" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="V23" t="s">
+        <v>32</v>
+      </c>
+      <c r="W23" t="s">
+        <v>32</v>
+      </c>
+      <c r="X23" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y23" t="s">
         <v>186</v>
-      </c>
-      <c r="W23" t="s">
-        <v>186</v>
-      </c>
-      <c r="X23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2733,19 +2736,19 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
         <v>188</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
         <v>189</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="H24" t="s">
         <v>32</v>
@@ -2754,10 +2757,10 @@
         <v>32</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L24" t="s">
         <v>32</v>
@@ -2778,7 +2781,7 @@
         <v>32</v>
       </c>
       <c r="R24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S24" t="s">
         <v>32</v>
@@ -2796,7 +2799,7 @@
         <v>32</v>
       </c>
       <c r="X24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s">
         <v>32</v>
@@ -2804,40 +2807,40 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="F25" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="G25" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="H25" t="s">
         <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K25" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M25" t="s">
         <v>32</v>
@@ -2852,10 +2855,10 @@
         <v>32</v>
       </c>
       <c r="Q25" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="R25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S25" t="s">
         <v>32</v>
@@ -2873,7 +2876,7 @@
         <v>32</v>
       </c>
       <c r="X25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s">
         <v>32</v>
@@ -2881,25 +2884,25 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H26" t="s">
         <v>32</v>
@@ -2908,10 +2911,10 @@
         <v>32</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L26" t="s">
         <v>32</v>
@@ -2932,7 +2935,7 @@
         <v>32</v>
       </c>
       <c r="R26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S26" t="s">
         <v>32</v>
@@ -2950,7 +2953,7 @@
         <v>32</v>
       </c>
       <c r="X26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s">
         <v>32</v>

--- a/data/2023/ssg/28,2_DE-7.xlsx
+++ b/data/2023/ssg/28,2_DE-7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="203">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -154,6 +154,12 @@
     <t>9.1969 -</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>805161-6</t>
   </si>
   <si>
@@ -277,12 +283,6 @@
     <t>1992,Okt. -</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>1289823-5</t>
   </si>
   <si>
@@ -551,6 +551,9 @@
   </si>
   <si>
     <t>[1.]2006; 2.2007 -</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>2275416-7</t>
@@ -1173,13 +1176,13 @@
         <v>32</v>
       </c>
       <c r="U3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="V3" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="W3" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="X3" t="s">
         <v>38</v>
@@ -1190,13 +1193,13 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -1223,7 +1226,7 @@
         <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M4" t="s">
         <v>32</v>
@@ -1241,7 +1244,7 @@
         <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="S4" t="s">
         <v>32</v>
@@ -1267,7 +1270,7 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -1279,7 +1282,7 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
@@ -1300,7 +1303,7 @@
         <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -1318,7 +1321,7 @@
         <v>32</v>
       </c>
       <c r="R5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S5" t="s">
         <v>32</v>
@@ -1344,7 +1347,7 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -1353,13 +1356,13 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -1395,7 +1398,7 @@
         <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="S6" t="s">
         <v>32</v>
@@ -1421,7 +1424,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -1433,10 +1436,10 @@
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
@@ -1454,7 +1457,7 @@
         <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M7" t="s">
         <v>32</v>
@@ -1472,7 +1475,7 @@
         <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="S7" t="s">
         <v>32</v>
@@ -1498,25 +1501,25 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
@@ -1525,13 +1528,13 @@
         <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s">
         <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M8" t="s">
         <v>32</v>
@@ -1549,7 +1552,7 @@
         <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s">
         <v>32</v>
@@ -1575,7 +1578,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1584,16 +1587,16 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
         <v>32</v>
@@ -1602,13 +1605,13 @@
         <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s">
         <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M9" t="s">
         <v>32</v>
@@ -1626,7 +1629,7 @@
         <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s">
         <v>32</v>
@@ -1652,7 +1655,7 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1661,13 +1664,13 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
@@ -1676,10 +1679,10 @@
         <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s">
         <v>35</v>
@@ -1700,10 +1703,10 @@
         <v>32</v>
       </c>
       <c r="Q10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S10" t="s">
         <v>32</v>
@@ -1712,13 +1715,13 @@
         <v>32</v>
       </c>
       <c r="U10" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="V10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="W10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="X10" t="s">
         <v>38</v>
@@ -1735,7 +1738,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>90</v>
@@ -1821,10 +1824,10 @@
         <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
         <v>32</v>
@@ -1889,7 +1892,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>106</v>
@@ -1966,7 +1969,7 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>114</v>
@@ -2055,7 +2058,7 @@
         <v>123</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
         <v>32</v>
@@ -2197,7 +2200,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>137</v>
@@ -2351,7 +2354,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
         <v>151</v>
@@ -2428,7 +2431,7 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
         <v>157</v>
@@ -2645,15 +2648,15 @@
         <v>32</v>
       </c>
       <c r="X22" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="Y22" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -2662,13 +2665,13 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G23" t="s">
         <v>109</v>
@@ -2680,7 +2683,7 @@
         <v>32</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s">
         <v>35</v>
@@ -2701,10 +2704,10 @@
         <v>32</v>
       </c>
       <c r="Q23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S23" t="s">
         <v>32</v>
@@ -2725,27 +2728,27 @@
         <v>103</v>
       </c>
       <c r="Y23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E24" t="s">
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G24" t="s">
         <v>109</v>
@@ -2757,7 +2760,7 @@
         <v>32</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K24" t="s">
         <v>35</v>
@@ -2781,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="R24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S24" t="s">
         <v>32</v>
@@ -2816,7 +2819,7 @@
         <v>164</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E25" t="s">
         <v>166</v>
@@ -2831,7 +2834,7 @@
         <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J25" t="s">
         <v>34</v>
@@ -2840,7 +2843,7 @@
         <v>35</v>
       </c>
       <c r="L25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M25" t="s">
         <v>32</v>
@@ -2858,7 +2861,7 @@
         <v>163</v>
       </c>
       <c r="R25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S25" t="s">
         <v>32</v>
@@ -2884,25 +2887,25 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H26" t="s">
         <v>32</v>
@@ -2935,7 +2938,7 @@
         <v>32</v>
       </c>
       <c r="R26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="S26" t="s">
         <v>32</v>
